--- a/documentation/data-dictionary.xlsx
+++ b/documentation/data-dictionary.xlsx
@@ -1,22 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaper\CoeTreeArchive.github.io\data\Fall 2022\supporting-documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eaper\CoeTreeArchive.github.io\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98EFCD8A-2935-47B6-B305-E3027A29E75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36B04BE-3E9F-4F40-B14B-6736F05403BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="1" xr2:uid="{BAC91C7E-CEE9-4957-88FF-37A0D27B122D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BAC91C7E-CEE9-4957-88FF-37A0D27B122D}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
-    <sheet name="Excel" sheetId="1" r:id="rId2"/>
-    <sheet name="Shapefile" sheetId="2" r:id="rId3"/>
-    <sheet name="kml" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,10 +24,227 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+  <si>
+    <t>Tree.ID</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Identification</t>
+  </si>
+  <si>
+    <t>DBH.(in)</t>
+  </si>
+  <si>
+    <t>Planters</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Species.ID</t>
+  </si>
+  <si>
+    <t>Species.Code</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Species.Group</t>
+  </si>
+  <si>
+    <t>DBH.Height.(ft)</t>
+  </si>
+  <si>
+    <t>Land.Use</t>
+  </si>
+  <si>
+    <t>Height.(ft)</t>
+  </si>
+  <si>
+    <t>Crown.Height.(ft)</t>
+  </si>
+  <si>
+    <t>Crown.Width.(ft)</t>
+  </si>
+  <si>
+    <t>Canopy.Cover.(ft^2)</t>
+  </si>
+  <si>
+    <t>Leaf.Area.(ft^2)</t>
+  </si>
+  <si>
+    <t>Leaf.Biomass.(lb)</t>
+  </si>
+  <si>
+    <t>Leaf.Area.Index</t>
+  </si>
+  <si>
+    <t>Basal.Area.(ft^2)</t>
+  </si>
+  <si>
+    <t>Replacement.Value.($)</t>
+  </si>
+  <si>
+    <t>Carbon.Storage.(lb)</t>
+  </si>
+  <si>
+    <t>Carbon.Storage.($)</t>
+  </si>
+  <si>
+    <t>Gross.Carbon.Sequestration.(lb/yr)</t>
+  </si>
+  <si>
+    <t>Gross.Carbon.Sequestration.($/yr)</t>
+  </si>
+  <si>
+    <t>Avoided.Runoff.(gal/yr)</t>
+  </si>
+  <si>
+    <t>Avoided.Runoff.($/yr)</t>
+  </si>
+  <si>
+    <t>Pollution.Removal.(oz/yr)</t>
+  </si>
+  <si>
+    <t>Pollution.Removal.($/yr)</t>
+  </si>
+  <si>
+    <t>Total.Annual.Benefits.($/yr)</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A unique, three-digit identifier for each tree in the archive. </t>
+  </si>
+  <si>
+    <t>The date associated with the observation. Each observation represents one measurement of one tree.</t>
+  </si>
+  <si>
+    <t>The species of the tree that appears throughout the tree archive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The names of any individuals who planted the tree. These are always formatted as "First Initial. Last Name". The names of planters are soured from metal tags placed on trees planted following the 2020 derecho.  </t>
+  </si>
+  <si>
+    <t>Diameter at Breast Height measured in inches. Diamter at Breast Height (DBH) is a standard measurement of the width of the tree trunk 4.5 feet off the ground. i-Tree Eco uses this measurement along with the species of the tree to estimate other physical characteristics of the trees.</t>
+  </si>
+  <si>
+    <t>Name of the tree. Tree names are all tree puns based off of the names of Coe staff and faculty. These names are also submitted by Coe's staff and faculty.</t>
+  </si>
+  <si>
+    <t>Unique identification number for the tree species from i-Tree Eco. Find the full list of i-Tree Eco's species identifers here: https://www.itreetools.org/support/resources-overview/i-tree-methods-and-files</t>
+  </si>
+  <si>
+    <t>Unique code for the tree species from i-Tree Eco. Find the full list of i-Tree Eco's species codes here: https://www.itreetools.org/support/resources-overview/i-tree-methods-and-files</t>
+  </si>
+  <si>
+    <t>Unique species name for the tree species from i-Tree Eco. Find the full list of i-Tree Eco's species names here: https://www.itreetools.org/support/resources-overview/i-tree-methods-and-files</t>
+  </si>
+  <si>
+    <t>Coe Tree Archive species groups. For the purpose of the species icons on the tree map, trees species are grouped together.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The height off the ground in feet that the diamter at breast height is measured at. This is 4.5 feet for all trees. </t>
+  </si>
+  <si>
+    <t>The land use of the area of the tree. This is needed for i-Tree Eco to make estimates. Land use is "Institutional" for all trees in the archive.</t>
+  </si>
+  <si>
+    <t>The predicted tree height in feet, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted height of the tree's crown, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted width (diameter) of the tree's crown, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted canopy area in square feet, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted leaf area in square feet, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted biomass of the tree's leaves in pounds, as estimated by i-Tree Eco.</t>
+  </si>
+  <si>
+    <t>The predicted Leaf Area Index, as estimated by i-Tree Eco. Learn more about the Leaf Area Index: https://www.metergroup.com/en/meter-environment/education-guides/researchers-complete-guide-leaf-area-index-lai</t>
+  </si>
+  <si>
+    <t>The series, or period when the measurement was taken, of the observation. For instance, Fall 2022.</t>
+  </si>
+  <si>
+    <t>The longitude of the tree's location.</t>
+  </si>
+  <si>
+    <t>The latitude of the tree's location.</t>
+  </si>
+  <si>
+    <t>The sum of all benefits estimated with a monetary value.</t>
+  </si>
+  <si>
+    <t>A monetized estimate of the benefit of the tree's annual reduction in air pollution in US dollars per year.</t>
+  </si>
+  <si>
+    <t>A monetized estimate of the benefit of the tree's carbon storage in US dollars.</t>
+  </si>
+  <si>
+    <t>A monetized estimate of the benefit of the tree's annual carbon sequestration in US dollars per year.</t>
+  </si>
+  <si>
+    <t>A monetized estimate of the benefit of the tree's annual avoided runoff in US dollars per year.</t>
+  </si>
+  <si>
+    <t>An estimate of the the tree's annual air pollution removal in ounces of air pollution per year.</t>
+  </si>
+  <si>
+    <t>An estimate of the the tree's annual avoided runoff in gallons of runoff per year.</t>
+  </si>
+  <si>
+    <t>An estimate of the the tree's annual carbon sequestration in pounds of carbon per year.</t>
+  </si>
+  <si>
+    <t>An estimate of the the tree's cummulative carbon stored in pounds.</t>
+  </si>
+  <si>
+    <t>An estimate of the compensatory value of a tree in US dollars.</t>
+  </si>
+  <si>
+    <t>The predicted basal area of the tree in square feet, as estimated by i-Tree Eco.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -58,13 +272,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -77,111 +320,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DADEC7D-E2F0-6E80-B589-2BCDFBFC99FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="619125" y="200025"/>
-          <a:ext cx="8401050" cy="4029075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t>Data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1" baseline="0">
-              <a:latin typeface="+mj-lt"/>
-            </a:rPr>
-            <a:t> Dictionary</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="1">
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t>Data</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="0" baseline="0">
-              <a:latin typeface="+mn-lt"/>
-            </a:rPr>
-            <a:t> for the Coe Tree Archive are available in three formats: (1) Excel, (2) shapefiles, and (3) .kml. This data dictionary describes the each of the variables that appears in the three formats. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1200" b="0">
-            <a:latin typeface="+mn-lt"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{854DBFC4-56B1-4B98-B3D1-8CF1D3D5A0B3}" name="Table1" displayName="Table1" ref="A1:B34" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:B34" xr:uid="{854DBFC4-56B1-4B98-B3D1-8CF1D3D5A0B3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BD20F877-354C-4B01-9300-BC043BC06085}" name="Variable"/>
+    <tableColumn id="2" xr3:uid="{F7C01886-52B0-4D5A-AAF0-92A02D97A87B}" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,51 +628,293 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1320490-FCE9-4A9D-BCFB-677D99F125BD}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5921F294-30A6-4D8A-95F5-5BFAFF3CFB33}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="91" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6721B9E4-C952-4422-91A7-35B7AA43818D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F1617A5-2081-4989-A701-5CE87B4ABDA6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>